--- a/cost/202101汇总_220324.xlsx
+++ b/cost/202101汇总_220324.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202102-合并" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202102-南京" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202102-南京-个人" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1804,4 +1805,451 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>部门</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>属地</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>大类</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>项目归属</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>基本工资</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>岗位工资（职等）</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>岗位工资（职务）</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>管理津贴</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>年功工资</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>事假扣薪</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>病假扣薪</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>绩效奖金</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>业绩提成</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>全勤奖</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>项目奖</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>工作奖</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>应发工资</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>社保扣款</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>基本公积金</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>补充公积金</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>代扣个人所得税</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>其他扣款</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>扣工会费</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>扣罚款</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>退上月个税</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>实发工资</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>周楠</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>技术中心（版图组）</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>通用和遥控器</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>A950</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>9195.4</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>9195.4</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>125.86</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>9069.540000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>王嘉磊</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>财务部</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1118.39</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>5318.39</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>535</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>4433.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>颜璨学源</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>营销中心（销售部）</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>5500</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>535</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>4615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>